--- a/time-table.xlsx
+++ b/time-table.xlsx
@@ -1,19 +1,416 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhlamnguyen/Downloads/DEV/convert csv to ics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48DCC35-4D00-4440-BB8B-84149FF1BDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Kỳ</t>
+  </si>
+  <si>
+    <t>Trường_Viện_Khoa</t>
+  </si>
+  <si>
+    <t>Mã_lớp</t>
+  </si>
+  <si>
+    <t>Mã_lớp_kèm</t>
+  </si>
+  <si>
+    <t>Mã_HP</t>
+  </si>
+  <si>
+    <t>Tên_HP</t>
+  </si>
+  <si>
+    <t>Tên_HP_Tiếng_Anh</t>
+  </si>
+  <si>
+    <t>Khối_lượng</t>
+  </si>
+  <si>
+    <t>Ghi_chú</t>
+  </si>
+  <si>
+    <t>Buổi_số</t>
+  </si>
+  <si>
+    <t>Thứ</t>
+  </si>
+  <si>
+    <t>Thời_gian</t>
+  </si>
+  <si>
+    <t>BĐ</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>Kíp</t>
+  </si>
+  <si>
+    <t>Tuần</t>
+  </si>
+  <si>
+    <t>Phòng</t>
+  </si>
+  <si>
+    <t>Cần_TN</t>
+  </si>
+  <si>
+    <t>SLĐK</t>
+  </si>
+  <si>
+    <t>SL_Max</t>
+  </si>
+  <si>
+    <t>Trạng_thái</t>
+  </si>
+  <si>
+    <t>Loại_lớp</t>
+  </si>
+  <si>
+    <t>Đợt_mở</t>
+  </si>
+  <si>
+    <t>Mã_QL</t>
+  </si>
+  <si>
+    <t>TeachingType</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>KML</t>
+  </si>
+  <si>
+    <t>SSH1151</t>
+  </si>
+  <si>
+    <t>Tư tưởng Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh Ideology</t>
+  </si>
+  <si>
+    <t>2(2-0-0-4)</t>
+  </si>
+  <si>
+    <t>Toàn trường-K67S</t>
+  </si>
+  <si>
+    <t>0920-1145</t>
+  </si>
+  <si>
+    <t>Sáng</t>
+  </si>
+  <si>
+    <t>25,27,29,31,33,35,37,39,41</t>
+  </si>
+  <si>
+    <t>D3-5-501</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Đang xếp TKB</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>CT CHUẨN</t>
+  </si>
+  <si>
+    <t>TCNTT</t>
+  </si>
+  <si>
+    <t>IT2030</t>
+  </si>
+  <si>
+    <t>Technical Writing and Presentation</t>
+  </si>
+  <si>
+    <t>3(2-2-0-6)</t>
+  </si>
+  <si>
+    <t>**CTTT-Data Science, An toàn KG-K68S</t>
+  </si>
+  <si>
+    <t>0645-1005</t>
+  </si>
+  <si>
+    <t>24-31,33-41</t>
+  </si>
+  <si>
+    <t>C7-103</t>
+  </si>
+  <si>
+    <t>LT+BT</t>
+  </si>
+  <si>
+    <t>ELITECH</t>
+  </si>
+  <si>
+    <t>IT3010E</t>
+  </si>
+  <si>
+    <t>Cấu trúc dữ liệu và giải thuật</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>3(3-1-0-6)</t>
+  </si>
+  <si>
+    <t>**CTTT Data Science 01,02-K69S</t>
+  </si>
+  <si>
+    <t>1015-1145</t>
+  </si>
+  <si>
+    <t>24-33,37-42</t>
+  </si>
+  <si>
+    <t>C7-109</t>
+  </si>
+  <si>
+    <t>0920-1100</t>
+  </si>
+  <si>
+    <t>C7-215</t>
+  </si>
+  <si>
+    <t>BGDTC</t>
+  </si>
+  <si>
+    <t>PE2201</t>
+  </si>
+  <si>
+    <t>Bóng đá 1</t>
+  </si>
+  <si>
+    <t>Football I</t>
+  </si>
+  <si>
+    <t>0(0-2-0-2)</t>
+  </si>
+  <si>
+    <t>Bóng đá 1-C</t>
+  </si>
+  <si>
+    <t>1530-1630</t>
+  </si>
+  <si>
+    <t>Chiều</t>
+  </si>
+  <si>
+    <t>SVD</t>
+  </si>
+  <si>
+    <t>IT4023E</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>2(2-1-0-4)</t>
+  </si>
+  <si>
+    <t>**CTTT-Data Science -K67S</t>
+  </si>
+  <si>
+    <t>0645-0910</t>
+  </si>
+  <si>
+    <t>D9-105</t>
+  </si>
+  <si>
+    <t>IT3190E</t>
+  </si>
+  <si>
+    <t>Học máy</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>**CTTT-Data Science, An toàn KG-K68C</t>
+  </si>
+  <si>
+    <t>1230-1550</t>
+  </si>
+  <si>
+    <t>D3-201</t>
+  </si>
+  <si>
+    <t>IT2022E</t>
+  </si>
+  <si>
+    <t>Thống kê ứng dụng và phân tích thực nghiệm</t>
+  </si>
+  <si>
+    <t>Applied Statistics and Experimental Design</t>
+  </si>
+  <si>
+    <t>D3-5-201</t>
+  </si>
+  <si>
+    <t>IT3090E</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>3(2-1-1-6)</t>
+  </si>
+  <si>
+    <t>1230-1455</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>THKHSS</t>
+  </si>
+  <si>
+    <t>CH2021</t>
+  </si>
+  <si>
+    <t>Đổi mới sáng tạo và khởi nghiệp</t>
+  </si>
+  <si>
+    <t>Innovation and Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Bổ trợ-K68C</t>
+  </si>
+  <si>
+    <t>D3-402</t>
+  </si>
+  <si>
+    <t>IT3090E-(DS&amp;AI + ATKGS)-N01</t>
+  </si>
+  <si>
+    <t>0645-0915</t>
+  </si>
+  <si>
+    <t>B1-402</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,13 +440,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,178 +779,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Kỳ</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Trường_Viện_Khoa</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Mã_lớp</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Mã_lớp_kèm</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Mã_HP</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Tên_HP</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Tên_HP_Tiếng_Anh</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Khối_lượng</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Ghi_chú</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Buổi_số</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Thứ</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Thời_gian</v>
-      </c>
-      <c r="M2" t="str">
-        <v>BĐ</v>
-      </c>
-      <c r="N2" t="str">
-        <v>KT</v>
-      </c>
-      <c r="O2" t="str">
-        <v>Kíp</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Tuần</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>Phòng</v>
-      </c>
-      <c r="R2" t="str">
-        <v>Cần_TN</v>
-      </c>
-      <c r="S2" t="str">
-        <v>SLĐK</v>
-      </c>
-      <c r="T2" t="str">
-        <v>SL_Max</v>
-      </c>
-      <c r="U2" t="str">
-        <v>Trạng_thái</v>
-      </c>
-      <c r="V2" t="str">
-        <v>Loại_lớp</v>
-      </c>
-      <c r="W2" t="str">
-        <v>Đợt_mở</v>
-      </c>
-      <c r="X2" t="str">
-        <v>Mã_QL</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>TeachingType</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>color</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20242</v>
       </c>
-      <c r="B3" t="str">
-        <v>KML</v>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
       <c r="C3">
         <v>159038</v>
@@ -553,20 +961,20 @@
       <c r="D3">
         <v>159035</v>
       </c>
-      <c r="E3" t="str">
-        <v>SSH1151</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Tư tưởng Hồ Chí Minh</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Ho Chi Minh Ideology</v>
-      </c>
-      <c r="H3" t="str">
-        <v>2(2-0-0-4)</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Toàn trường-K67S</v>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -574,8 +982,8 @@
       <c r="K3">
         <v>6</v>
       </c>
-      <c r="L3" t="str">
-        <v>0920-1145</v>
+      <c r="L3" t="s">
+        <v>58</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -583,46 +991,46 @@
       <c r="N3">
         <v>6</v>
       </c>
-      <c r="O3" t="str">
-        <v>Sáng</v>
-      </c>
-      <c r="P3" t="str">
-        <v>25,27,29,31,33,35,37,39,41</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>D3-5-501</v>
-      </c>
-      <c r="R3" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S3" t="str">
-        <v>NULL</v>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>63</v>
       </c>
       <c r="T3">
         <v>40</v>
       </c>
-      <c r="U3" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V3" t="str">
-        <v>BT</v>
-      </c>
-      <c r="W3" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X3" t="str">
-        <v>CT CHUẨN</v>
-      </c>
-      <c r="Y3" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20242</v>
       </c>
-      <c r="B4" t="str">
-        <v>TCNTT</v>
+      <c r="B4" t="s">
+        <v>68</v>
       </c>
       <c r="C4">
         <v>157363</v>
@@ -630,20 +1038,20 @@
       <c r="D4">
         <v>157363</v>
       </c>
-      <c r="E4" t="str">
-        <v>IT2030</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Technical Writing and Presentation</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Technical Writing and Presentation</v>
-      </c>
-      <c r="H4" t="str">
-        <v>3(2-2-0-6)</v>
-      </c>
-      <c r="I4" t="str">
-        <v>**CTTT-Data Science, An toàn KG-K68S</v>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -651,8 +1059,8 @@
       <c r="K4">
         <v>4</v>
       </c>
-      <c r="L4" t="str">
-        <v>0645-1005</v>
+      <c r="L4" t="s">
+        <v>73</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -660,46 +1068,46 @@
       <c r="N4">
         <v>4</v>
       </c>
-      <c r="O4" t="str">
-        <v>Sáng</v>
-      </c>
-      <c r="P4" t="str">
-        <v>24-31,33-41</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>C7-103</v>
-      </c>
-      <c r="R4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S4" t="str">
-        <v>NULL</v>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" t="s">
+        <v>63</v>
       </c>
       <c r="T4">
         <v>60</v>
       </c>
-      <c r="U4" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V4" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W4" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X4" t="str">
-        <v>ELITECH</v>
-      </c>
-      <c r="Y4" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20242</v>
       </c>
-      <c r="B5" t="str">
-        <v>TCNTT</v>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
       <c r="C5">
         <v>159555</v>
@@ -707,20 +1115,20 @@
       <c r="D5">
         <v>159555</v>
       </c>
-      <c r="E5" t="str">
-        <v>IT3010E</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Cấu trúc dữ liệu và giải thuật</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Data Structures and Algorithms</v>
-      </c>
-      <c r="H5" t="str">
-        <v>3(3-1-0-6)</v>
-      </c>
-      <c r="I5" t="str">
-        <v>**CTTT Data Science 01,02-K69S</v>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -728,8 +1136,8 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" t="str">
-        <v>1015-1145</v>
+      <c r="L5" t="s">
+        <v>83</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -737,46 +1145,46 @@
       <c r="N5">
         <v>6</v>
       </c>
-      <c r="O5" t="str">
-        <v>Sáng</v>
-      </c>
-      <c r="P5" t="str">
-        <v>24-33,37-42</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>C7-109</v>
-      </c>
-      <c r="R5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S5" t="str">
-        <v>NULL</v>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" t="s">
+        <v>63</v>
       </c>
       <c r="T5">
         <v>100</v>
       </c>
-      <c r="U5" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V5" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W5" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X5" t="str">
-        <v>ELITECH</v>
-      </c>
-      <c r="Y5" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20242</v>
       </c>
-      <c r="B6" t="str">
-        <v>TCNTT</v>
+      <c r="B6" t="s">
+        <v>68</v>
       </c>
       <c r="C6">
         <v>159555</v>
@@ -784,20 +1192,20 @@
       <c r="D6">
         <v>159555</v>
       </c>
-      <c r="E6" t="str">
-        <v>IT3010E</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Cấu trúc dữ liệu và giải thuật</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Data Structures and Algorithms</v>
-      </c>
-      <c r="H6" t="str">
-        <v>3(3-1-0-6)</v>
-      </c>
-      <c r="I6" t="str">
-        <v>**CTTT Data Science 01,02-K69S</v>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -805,8 +1213,8 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" t="str">
-        <v>0920-1100</v>
+      <c r="L6" t="s">
+        <v>86</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -814,46 +1222,46 @@
       <c r="N6">
         <v>5</v>
       </c>
-      <c r="O6" t="str">
-        <v>Sáng</v>
-      </c>
-      <c r="P6" t="str">
-        <v>24-33,37-42</v>
-      </c>
-      <c r="Q6" t="str">
-        <v>C7-215</v>
-      </c>
-      <c r="R6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S6" t="str">
-        <v>NULL</v>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
       </c>
       <c r="T6">
         <v>100</v>
       </c>
-      <c r="U6" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V6" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W6" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X6" t="str">
-        <v>ELITECH</v>
-      </c>
-      <c r="Y6" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20242</v>
       </c>
-      <c r="B7" t="str">
-        <v>BGDTC</v>
+      <c r="B7" t="s">
+        <v>88</v>
       </c>
       <c r="C7">
         <v>750325</v>
@@ -861,20 +1269,20 @@
       <c r="D7">
         <v>750325</v>
       </c>
-      <c r="E7" t="str">
-        <v>PE2201</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Bóng đá 1</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Football I</v>
-      </c>
-      <c r="H7" t="str">
-        <v>0(0-2-0-2)</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Bóng đá 1-C</v>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -882,8 +1290,8 @@
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" t="str">
-        <v>1530-1630</v>
+      <c r="L7" t="s">
+        <v>94</v>
       </c>
       <c r="M7">
         <v>1530</v>
@@ -891,46 +1299,46 @@
       <c r="N7">
         <v>1630</v>
       </c>
-      <c r="O7" t="str">
-        <v>Chiều</v>
-      </c>
-      <c r="P7" t="str">
-        <v>24-31,33-41</v>
-      </c>
-      <c r="Q7" t="str">
-        <v>SVD</v>
-      </c>
-      <c r="R7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S7" t="str">
-        <v>NULL</v>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" t="s">
+        <v>63</v>
       </c>
       <c r="T7">
         <v>55</v>
       </c>
-      <c r="U7" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V7" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W7" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X7" t="str">
-        <v>CT CHUẨN</v>
-      </c>
-      <c r="Y7" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20242</v>
       </c>
-      <c r="B8" t="str">
-        <v>TCNTT</v>
+      <c r="B8" t="s">
+        <v>68</v>
       </c>
       <c r="C8">
         <v>157211</v>
@@ -938,20 +1346,20 @@
       <c r="D8">
         <v>157211</v>
       </c>
-      <c r="E8" t="str">
-        <v>IT4023E</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Data Visualization</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Data Visualization</v>
-      </c>
-      <c r="H8" t="str">
-        <v>2(2-1-0-4)</v>
-      </c>
-      <c r="I8" t="str">
-        <v>**CTTT-Data Science -K67S</v>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -959,8 +1367,8 @@
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="L8" t="str">
-        <v>0645-0910</v>
+      <c r="L8" t="s">
+        <v>101</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -968,46 +1376,46 @@
       <c r="N8">
         <v>3</v>
       </c>
-      <c r="O8" t="str">
-        <v>Sáng</v>
-      </c>
-      <c r="P8" t="str">
-        <v>24-31,33-41</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>D9-105</v>
-      </c>
-      <c r="R8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S8" t="str">
-        <v>NULL</v>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" t="s">
+        <v>63</v>
       </c>
       <c r="T8">
         <v>120</v>
       </c>
-      <c r="U8" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V8" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W8" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X8" t="str">
-        <v>ELITECH</v>
-      </c>
-      <c r="Y8" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20242</v>
       </c>
-      <c r="B9" t="str">
-        <v>TCNTT</v>
+      <c r="B9" t="s">
+        <v>68</v>
       </c>
       <c r="C9">
         <v>157361</v>
@@ -1015,20 +1423,20 @@
       <c r="D9">
         <v>157361</v>
       </c>
-      <c r="E9" t="str">
-        <v>IT3190E</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Học máy</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Machine Learning</v>
-      </c>
-      <c r="H9" t="str">
-        <v>3(3-1-0-6)</v>
-      </c>
-      <c r="I9" t="str">
-        <v>**CTTT-Data Science, An toàn KG-K68C</v>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1036,8 +1444,8 @@
       <c r="K9">
         <v>5</v>
       </c>
-      <c r="L9" t="str">
-        <v>1230-1550</v>
+      <c r="L9" t="s">
+        <v>107</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1045,46 +1453,46 @@
       <c r="N9">
         <v>4</v>
       </c>
-      <c r="O9" t="str">
-        <v>Chiều</v>
-      </c>
-      <c r="P9" t="str">
-        <v>24-31,33-41</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>D3-201</v>
-      </c>
-      <c r="R9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S9" t="str">
-        <v>NULL</v>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" t="s">
+        <v>63</v>
       </c>
       <c r="T9">
         <v>150</v>
       </c>
-      <c r="U9" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V9" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W9" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X9" t="str">
-        <v>ELITECH</v>
-      </c>
-      <c r="Y9" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20242</v>
       </c>
-      <c r="B10" t="str">
-        <v>TCNTT</v>
+      <c r="B10" t="s">
+        <v>68</v>
       </c>
       <c r="C10">
         <v>157362</v>
@@ -1092,20 +1500,20 @@
       <c r="D10">
         <v>157362</v>
       </c>
-      <c r="E10" t="str">
-        <v>IT2022E</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Thống kê ứng dụng và phân tích thực nghiệm</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Applied Statistics and Experimental Design</v>
-      </c>
-      <c r="H10" t="str">
-        <v>3(3-1-0-6)</v>
-      </c>
-      <c r="I10" t="str">
-        <v>**CTTT-Data Science, An toàn KG-K68C</v>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1113,8 +1521,8 @@
       <c r="K10">
         <v>6</v>
       </c>
-      <c r="L10" t="str">
-        <v>1230-1550</v>
+      <c r="L10" t="s">
+        <v>107</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1122,46 +1530,46 @@
       <c r="N10">
         <v>4</v>
       </c>
-      <c r="O10" t="str">
-        <v>Chiều</v>
-      </c>
-      <c r="P10" t="str">
-        <v>24-31,33-41</v>
-      </c>
-      <c r="Q10" t="str">
-        <v>D3-5-201</v>
-      </c>
-      <c r="R10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S10" t="str">
-        <v>NULL</v>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" t="s">
+        <v>63</v>
       </c>
       <c r="T10">
         <v>150</v>
       </c>
-      <c r="U10" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V10" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W10" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X10" t="str">
-        <v>ELITECH</v>
-      </c>
-      <c r="Y10" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20242</v>
       </c>
-      <c r="B11" t="str">
-        <v>TCNTT</v>
+      <c r="B11" t="s">
+        <v>68</v>
       </c>
       <c r="C11">
         <v>157359</v>
@@ -1169,20 +1577,20 @@
       <c r="D11">
         <v>157359</v>
       </c>
-      <c r="E11" t="str">
-        <v>IT3090E</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Cơ sở dữ liệu</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Database</v>
-      </c>
-      <c r="H11" t="str">
-        <v>3(2-1-1-6)</v>
-      </c>
-      <c r="I11" t="str">
-        <v>**CTTT-Data Science, An toàn KG-K68C</v>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1190,8 +1598,8 @@
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" t="str">
-        <v>1230-1455</v>
+      <c r="L11" t="s">
+        <v>117</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1199,46 +1607,46 @@
       <c r="N11">
         <v>3</v>
       </c>
-      <c r="O11" t="str">
-        <v>Chiều</v>
-      </c>
-      <c r="P11" t="str">
-        <v>24-31,33-41</v>
-      </c>
-      <c r="Q11" t="str">
-        <v>C7-215</v>
-      </c>
-      <c r="R11" t="str">
-        <v>TN</v>
-      </c>
-      <c r="S11" t="str">
-        <v>NULL</v>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" t="s">
+        <v>63</v>
       </c>
       <c r="T11">
         <v>90</v>
       </c>
-      <c r="U11" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V11" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W11" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X11" t="str">
-        <v>ELITECH</v>
-      </c>
-      <c r="Y11" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20242</v>
       </c>
-      <c r="B12" t="str">
-        <v>THKHSS</v>
+      <c r="B12" t="s">
+        <v>119</v>
       </c>
       <c r="C12">
         <v>158432</v>
@@ -1246,20 +1654,20 @@
       <c r="D12">
         <v>158432</v>
       </c>
-      <c r="E12" t="str">
-        <v>CH2021</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Đổi mới sáng tạo và khởi nghiệp</v>
-      </c>
-      <c r="G12" t="str">
-        <v>Innovation and Entrepreneurship</v>
-      </c>
-      <c r="H12" t="str">
-        <v>2(2-1-0-4)</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Bổ trợ-K68C</v>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1267,8 +1675,8 @@
       <c r="K12">
         <v>4</v>
       </c>
-      <c r="L12" t="str">
-        <v>1230-1455</v>
+      <c r="L12" t="s">
+        <v>117</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1276,46 +1684,46 @@
       <c r="N12">
         <v>3</v>
       </c>
-      <c r="O12" t="str">
-        <v>Chiều</v>
-      </c>
-      <c r="P12" t="str">
-        <v>24-31,33-41</v>
-      </c>
-      <c r="Q12" t="str">
-        <v>D3-402</v>
-      </c>
-      <c r="R12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S12" t="str">
-        <v>NULL</v>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" t="s">
+        <v>63</v>
       </c>
       <c r="T12">
         <v>60</v>
       </c>
-      <c r="U12" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V12" t="str">
-        <v>LT+BT</v>
-      </c>
-      <c r="W12" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X12" t="str">
-        <v>CT CHUẨN</v>
-      </c>
-      <c r="Y12" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20242</v>
       </c>
-      <c r="B13" t="str">
-        <v>TCNTT</v>
+      <c r="B13" t="s">
+        <v>68</v>
       </c>
       <c r="C13">
         <v>750857</v>
@@ -1323,20 +1731,20 @@
       <c r="D13">
         <v>750857</v>
       </c>
-      <c r="E13" t="str">
-        <v>IT3090E</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Cơ sở dữ liệu</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Database</v>
-      </c>
-      <c r="H13" t="str">
-        <v>3(2-1-1-6)</v>
-      </c>
-      <c r="I13" t="str">
-        <v>IT3090E-(DS&amp;AI + ATKGS)-N01</v>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1344,8 +1752,8 @@
       <c r="K13">
         <v>5</v>
       </c>
-      <c r="L13" t="str">
-        <v>0645-0915</v>
+      <c r="L13" t="s">
+        <v>126</v>
       </c>
       <c r="M13">
         <v>645</v>
@@ -1353,43 +1761,44 @@
       <c r="N13">
         <v>915</v>
       </c>
-      <c r="O13" t="str">
-        <v>Sáng</v>
-      </c>
-      <c r="P13" t="str">
-        <v>31,34,36,38,40</v>
-      </c>
-      <c r="Q13" t="str">
-        <v>B1-402</v>
-      </c>
-      <c r="R13" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S13" t="str">
-        <v>NULL</v>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13">
+        <v>25.27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>127</v>
+      </c>
+      <c r="R13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" t="s">
+        <v>63</v>
       </c>
       <c r="T13">
         <v>45</v>
       </c>
-      <c r="U13" t="str">
-        <v>Đang xếp TKB</v>
-      </c>
-      <c r="V13" t="str">
-        <v>TN</v>
-      </c>
-      <c r="W13" t="str">
-        <v>AB</v>
-      </c>
-      <c r="X13" t="str">
-        <v>ELITECH</v>
-      </c>
-      <c r="Y13" t="str">
-        <v xml:space="preserve"> </v>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>118</v>
+      </c>
+      <c r="W13" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z13"/>
+    <ignoredError sqref="A1:Z2 A13:O13 Q13:Z13 A4:Z12 A3:O3 Q3:Z3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>